--- a/tests/2_sided_val_table.xlsx
+++ b/tests/2_sided_val_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joevi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joevi\OneDrive\Documents\binomial_cis\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A0F3C-2C98-49BD-8097-88B59EF6CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568872B-EADA-441C-A2E7-9E0753B79F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{3D585FCE-D184-45FB-9712-6AADDFE23455}"/>
+    <workbookView xWindow="-15870" yWindow="3060" windowWidth="15450" windowHeight="11295" firstSheet="2" activeTab="7" xr2:uid="{3D585FCE-D184-45FB-9712-6AADDFE23455}"/>
   </bookViews>
   <sheets>
     <sheet name="95_T1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="73">
   <si>
     <t>13</t>
   </si>
@@ -269,9 +269,6 @@
     <t>43</t>
   </si>
   <si>
-    <t>•59</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -336,10 +333,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -681,109 +678,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89DB24-FA6E-4215-8D98-89E48A47BA6F}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="5">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="6">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
         <v>6</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6">
         <v>7</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
         <v>8</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6">
         <v>10</v>
       </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -841,8 +840,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f>A3+0.1</f>
         <v>0.1</v>
       </c>
@@ -901,8 +900,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A58" si="0">A4+0.1</f>
         <v>0.2</v>
       </c>
@@ -961,8 +960,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
@@ -1021,8 +1020,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -1081,8 +1080,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1141,8 +1140,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -1201,8 +1200,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -1261,8 +1260,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
@@ -1321,8 +1320,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
@@ -1381,8 +1380,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
@@ -1441,8 +1440,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1501,8 +1500,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1561,8 +1560,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1621,8 +1620,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1654,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1681,8 +1680,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1741,8 +1740,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
       </c>
@@ -1795,8 +1794,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
       </c>
@@ -1849,8 +1848,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
       </c>
@@ -1903,8 +1902,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
       </c>
@@ -1957,8 +1956,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
@@ -2011,8 +2010,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
       </c>
@@ -2059,8 +2058,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
       </c>
@@ -2107,8 +2106,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <f>A25+0.1</f>
         <v>2.3000000000000007</v>
       </c>
@@ -2155,8 +2154,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
       </c>
@@ -2203,8 +2202,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
       </c>
@@ -2251,8 +2250,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
       </c>
@@ -2293,8 +2292,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
       </c>
@@ -2335,8 +2334,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
       </c>
@@ -2377,8 +2376,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
       </c>
@@ -2419,8 +2418,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
       </c>
@@ -2461,8 +2460,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
       </c>
@@ -2497,8 +2496,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
       </c>
@@ -2533,8 +2532,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
       </c>
@@ -2569,8 +2568,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
       </c>
@@ -2605,8 +2604,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
       </c>
@@ -2641,8 +2640,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
       </c>
@@ -2671,8 +2670,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
       </c>
@@ -2701,8 +2700,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
       </c>
@@ -2731,8 +2730,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
       </c>
@@ -2761,8 +2760,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <f>A42+0.1</f>
         <v>4.0000000000000018</v>
       </c>
@@ -2791,8 +2790,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
       </c>
@@ -2815,8 +2814,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
@@ -2839,8 +2838,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
@@ -2863,8 +2862,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <f>A46+0.1</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2887,8 +2886,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2911,8 +2910,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
@@ -2929,8 +2928,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
       </c>
@@ -2947,8 +2946,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
       </c>
@@ -2965,8 +2964,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
       </c>
@@ -2983,8 +2982,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
       </c>
@@ -3001,8 +3000,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
       </c>
@@ -3013,8 +3012,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>5.1999999999999975</v>
       </c>
@@ -3025,8 +3024,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
       </c>
@@ -3037,8 +3036,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>5.3999999999999968</v>
       </c>
@@ -3049,8 +3048,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>5.4999999999999964</v>
       </c>
@@ -3081,15 +3080,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1784FFE1-4B4C-4567-AE5C-1187C0BA5E23}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="83" workbookViewId="0">
+      <selection activeCell="O2" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="7">
         <v>11</v>
@@ -3128,63 +3129,63 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.1</f>
         <v>0.1</v>
@@ -3303,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.1</f>
         <v>0.2</v>
@@ -3363,7 +3364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -3423,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -3483,7 +3484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -3543,7 +3544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -3603,7 +3604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -3663,7 +3664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -3723,7 +3724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -3783,7 +3784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -3843,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.2</f>
         <v>1.2</v>
@@ -3903,7 +3904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A57" si="1">A14+0.2</f>
         <v>1.4</v>
@@ -3963,7 +3964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
@@ -4023,7 +4024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
@@ -4083,7 +4084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
@@ -4143,7 +4144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
@@ -4203,7 +4204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>2.4</v>
@@ -4263,7 +4264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>2.6</v>
@@ -4323,7 +4324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
@@ -4383,7 +4384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>3.0000000000000004</v>
@@ -4443,7 +4444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>3.2000000000000006</v>
@@ -4503,7 +4504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
@@ -4563,7 +4564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>3.600000000000001</v>
@@ -4623,7 +4624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>3.8000000000000012</v>
@@ -4683,7 +4684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
@@ -4743,7 +4744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>4.2000000000000011</v>
@@ -4803,7 +4804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>4.4000000000000012</v>
@@ -4863,7 +4864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>4.6000000000000014</v>
@@ -4896,7 +4897,7 @@
         <v>8</v>
       </c>
       <c r="K31" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L31" s="1">
         <v>7</v>
@@ -4907,8 +4908,8 @@
       <c r="N31" s="1">
         <v>7</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>70</v>
+      <c r="O31" s="1">
+        <v>48</v>
       </c>
       <c r="P31" s="1">
         <v>6</v>
@@ -4923,7 +4924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
@@ -4950,13 +4951,13 @@
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1">
         <v>9</v>
       </c>
       <c r="K32" s="1">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L32" s="1">
         <v>8</v>
@@ -4983,7 +4984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>5.0000000000000018</v>
@@ -5022,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="M33" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N33" s="1">
         <v>9</v>
@@ -5043,7 +5044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
@@ -5082,7 +5083,7 @@
         <v>10</v>
       </c>
       <c r="M34" s="1">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1">
         <v>10</v>
@@ -5103,7 +5104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>5.4000000000000021</v>
@@ -5147,8 +5148,8 @@
       <c r="N35" s="1">
         <v>10</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>23</v>
+      <c r="O35" s="1">
+        <v>53</v>
       </c>
       <c r="P35" s="1">
         <v>10</v>
@@ -5163,7 +5164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>5.6000000000000023</v>
@@ -5207,8 +5208,8 @@
       <c r="N36" s="1">
         <v>11</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>42</v>
+      <c r="O36" s="1">
+        <v>54</v>
       </c>
       <c r="P36" s="1">
         <v>10</v>
@@ -5223,7 +5224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>5.8000000000000025</v>
@@ -5283,7 +5284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>6.0000000000000027</v>
@@ -5343,7 +5344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>6.2000000000000028</v>
@@ -5397,7 +5398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>6.400000000000003</v>
@@ -5435,8 +5436,8 @@
       <c r="N40" s="1">
         <v>14</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>71</v>
+      <c r="O40" s="1">
+        <v>59</v>
       </c>
       <c r="P40" s="1">
         <v>14</v>
@@ -5451,7 +5452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>6.6000000000000032</v>
@@ -5505,7 +5506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
         <v>6.8000000000000034</v>
@@ -5544,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="Q42" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R42" s="1">
         <v>14</v>
@@ -5553,7 +5554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>7.0000000000000036</v>
@@ -5592,7 +5593,7 @@
         <v>17</v>
       </c>
       <c r="Q43" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="R43" s="1">
         <v>16</v>
@@ -5601,7 +5602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="1"/>
         <v>7.2000000000000037</v>
@@ -5643,7 +5644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>7.4000000000000039</v>
@@ -5682,10 +5683,10 @@
         <v>17</v>
       </c>
       <c r="S45" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="1"/>
         <v>7.6000000000000041</v>
@@ -5727,7 +5728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>7.8000000000000043</v>
@@ -5763,7 +5764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="1"/>
         <v>8.0000000000000036</v>
@@ -5799,7 +5800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>8.2000000000000028</v>
@@ -5829,7 +5830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="1"/>
         <v>8.4000000000000021</v>
@@ -5859,7 +5860,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>8.6000000000000014</v>
@@ -5889,7 +5890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
@@ -5913,7 +5914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5937,7 +5938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
@@ -5955,7 +5956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>9.3999999999999986</v>
@@ -5973,7 +5974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="1"/>
         <v>9.5999999999999979</v>
@@ -5991,7 +5992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="1"/>
         <v>9.7999999999999972</v>
@@ -6003,7 +6004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>A57+0.2</f>
         <v>9.9999999999999964</v>
@@ -6038,13 +6039,13 @@
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="7">
         <v>20</v>
@@ -6083,63 +6084,63 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.1</f>
         <v>0.1</v>
@@ -6258,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.1</f>
         <v>0.2</v>
@@ -6318,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -6378,7 +6379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -6438,7 +6439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -6498,7 +6499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -6558,7 +6559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -6618,7 +6619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -6678,7 +6679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -6738,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -6798,7 +6799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.2</f>
         <v>1.2</v>
@@ -6858,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A38" si="1">A14+0.2</f>
         <v>1.4</v>
@@ -6918,7 +6919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
@@ -6978,7 +6979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
@@ -7038,7 +7039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
@@ -7098,7 +7099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
@@ -7158,7 +7159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>2.4</v>
@@ -7218,7 +7219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>2.6</v>
@@ -7278,7 +7279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
@@ -7338,7 +7339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>3.0000000000000004</v>
@@ -7398,7 +7399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>3.2000000000000006</v>
@@ -7458,7 +7459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
@@ -7518,7 +7519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>3.600000000000001</v>
@@ -7578,7 +7579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>3.8000000000000012</v>
@@ -7638,7 +7639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
@@ -7698,7 +7699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>4.2000000000000011</v>
@@ -7758,7 +7759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>4.4000000000000012</v>
@@ -7818,7 +7819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>4.6000000000000014</v>
@@ -7878,7 +7879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
@@ -7938,7 +7939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>5.0000000000000018</v>
@@ -7998,7 +7999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
@@ -8058,7 +8059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>5.4000000000000021</v>
@@ -8118,7 +8119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>5.6000000000000023</v>
@@ -8178,7 +8179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>5.8000000000000025</v>
@@ -8238,7 +8239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>6.0000000000000027</v>
@@ -8298,7 +8299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>A38+0.5</f>
         <v>6.5000000000000027</v>
@@ -8358,7 +8359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" ref="A40:A56" si="2">A39+0.5</f>
         <v>7.0000000000000027</v>
@@ -8418,7 +8419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="2"/>
         <v>7.5000000000000027</v>
@@ -8478,7 +8479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="2"/>
         <v>8.0000000000000036</v>
@@ -8538,7 +8539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="2"/>
         <v>8.5000000000000036</v>
@@ -8598,7 +8599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="2"/>
         <v>9.0000000000000036</v>
@@ -8658,7 +8659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="2"/>
         <v>9.5000000000000036</v>
@@ -8718,7 +8719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="2"/>
         <v>10.000000000000004</v>
@@ -8778,7 +8779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="2"/>
         <v>10.500000000000004</v>
@@ -8838,7 +8839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="2"/>
         <v>11.000000000000004</v>
@@ -8892,7 +8893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="2"/>
         <v>11.500000000000004</v>
@@ -8940,7 +8941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="2"/>
         <v>12.000000000000004</v>
@@ -8982,7 +8983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="2"/>
         <v>12.500000000000004</v>
@@ -9018,7 +9019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="2"/>
         <v>13.000000000000004</v>
@@ -9054,7 +9055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="2"/>
         <v>13.500000000000004</v>
@@ -9084,7 +9085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="2"/>
         <v>14.000000000000004</v>
@@ -9114,7 +9115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="2"/>
         <v>14.500000000000004</v>
@@ -9138,7 +9139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="2"/>
         <v>15.000000000000004</v>
@@ -9162,7 +9163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>16</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>17</v>
       </c>
@@ -9211,18 +9212,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C7E14E-46E2-40DA-881D-CF71AD133D62}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" zoomScale="75" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="19" width="8.7265625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="7">
         <v>34</v>
@@ -9261,63 +9260,63 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.2</f>
         <v>0.2</v>
@@ -9436,7 +9435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.2</f>
         <v>0.4</v>
@@ -9496,7 +9495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
@@ -9556,7 +9555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.8</v>
@@ -9616,7 +9615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9676,7 +9675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -9736,7 +9735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9+0.2</f>
         <v>1.4</v>
@@ -9796,7 +9795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
@@ -9856,7 +9855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
@@ -9916,7 +9915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
@@ -9976,7 +9975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.5</f>
         <v>2.5</v>
@@ -10036,7 +10035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A55" si="1">A14+0.5</f>
         <v>3</v>
@@ -10096,7 +10095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -10156,7 +10155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10216,7 +10215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>4.5</v>
@@ -10276,7 +10275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10336,7 +10335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>5.5</v>
@@ -10396,7 +10395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10456,7 +10455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
@@ -10516,7 +10515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10576,7 +10575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>7.5</v>
@@ -10636,7 +10635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10696,7 +10695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>8.5</v>
@@ -10756,7 +10755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10816,7 +10815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>9.5</v>
@@ -10876,7 +10875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10936,7 +10935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>10.5</v>
@@ -10996,7 +10995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -11056,7 +11055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>11.5</v>
@@ -11116,7 +11115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -11176,7 +11175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>12.5</v>
@@ -11236,7 +11235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -11296,7 +11295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -11356,7 +11355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -11416,7 +11415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>14.5</v>
@@ -11476,7 +11475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -11536,7 +11535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>15.5</v>
@@ -11596,7 +11595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -11656,7 +11655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
         <v>16.5</v>
@@ -11716,7 +11715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -11776,7 +11775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="1"/>
         <v>17.5</v>
@@ -11836,7 +11835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -11896,7 +11895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="1"/>
         <v>18.5</v>
@@ -11950,7 +11949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -12004,7 +12003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="1"/>
         <v>19.5</v>
@@ -12052,7 +12051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -12100,7 +12099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="1"/>
         <v>20.5</v>
@@ -12142,7 +12141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -12184,7 +12183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="1"/>
         <v>21.5</v>
@@ -12220,7 +12219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -12256,7 +12255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="1"/>
         <v>22.5</v>
@@ -12286,7 +12285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -12316,7 +12315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>24</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>25</v>
       </c>
@@ -12356,7 +12355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>26</v>
       </c>
@@ -12389,112 +12388,112 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="19" width="8.7265625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="5">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
         <v>6</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6">
         <v>7</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
         <v>8</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6">
         <v>10</v>
       </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -12552,8 +12551,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f>A3+0.1</f>
         <v>0.1</v>
       </c>
@@ -12612,8 +12611,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A58" si="0">A4+0.1</f>
         <v>0.2</v>
       </c>
@@ -12672,8 +12671,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
@@ -12732,8 +12731,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -12792,8 +12791,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -12852,8 +12851,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -12912,8 +12911,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -12972,8 +12971,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
@@ -13032,8 +13031,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
@@ -13092,8 +13091,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
@@ -13152,8 +13151,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -13212,8 +13211,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -13272,8 +13271,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -13332,8 +13331,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -13383,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -13392,11 +13391,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
@@ -13446,8 +13451,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
       </c>
@@ -13500,8 +13505,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
       </c>
@@ -13554,8 +13559,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
       </c>
@@ -13608,8 +13613,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
       </c>
@@ -13662,8 +13667,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
@@ -13716,8 +13721,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
       </c>
@@ -13764,8 +13769,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
       </c>
@@ -13812,8 +13817,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <f>A25+0.1</f>
         <v>2.3000000000000007</v>
       </c>
@@ -13845,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -13860,8 +13865,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
       </c>
@@ -13908,8 +13913,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
       </c>
@@ -13956,8 +13961,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
       </c>
@@ -13998,8 +14003,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
       </c>
@@ -14040,8 +14045,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
       </c>
@@ -14082,8 +14087,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
       </c>
@@ -14124,8 +14129,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
       </c>
@@ -14166,8 +14171,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
       </c>
@@ -14202,8 +14207,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
       </c>
@@ -14238,8 +14243,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
       </c>
@@ -14274,8 +14279,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
       </c>
@@ -14310,8 +14315,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
       </c>
@@ -14346,8 +14351,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
       </c>
@@ -14376,8 +14381,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
       </c>
@@ -14406,8 +14411,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
       </c>
@@ -14436,8 +14441,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
       </c>
@@ -14466,8 +14471,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <f>A42+0.1</f>
         <v>4.0000000000000018</v>
       </c>
@@ -14496,8 +14501,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
       </c>
@@ -14520,8 +14525,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
       </c>
@@ -14544,8 +14549,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
@@ -14568,8 +14573,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <f>A46+0.1</f>
         <v>4.4000000000000004</v>
       </c>
@@ -14592,8 +14597,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -14616,8 +14621,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
@@ -14634,8 +14639,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
       </c>
@@ -14652,8 +14657,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
       </c>
@@ -14670,8 +14675,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
       </c>
@@ -14688,8 +14693,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
       </c>
@@ -14706,8 +14711,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
       </c>
@@ -14718,8 +14723,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>5.1999999999999975</v>
       </c>
@@ -14730,8 +14735,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
       </c>
@@ -14742,8 +14747,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>5.3999999999999968</v>
       </c>
@@ -14754,8 +14759,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>5.4999999999999964</v>
       </c>
@@ -14790,14 +14795,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="19" width="8.7265625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7">
         <v>11</v>
       </c>
@@ -14835,64 +14840,64 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -14951,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.1</f>
         <v>0.1</v>
@@ -15011,7 +15016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.1</f>
         <v>0.2</v>
@@ -15071,7 +15076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -15131,7 +15136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -15191,7 +15196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -15251,7 +15256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -15311,7 +15316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -15371,7 +15376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -15431,7 +15436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -15491,7 +15496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -15551,7 +15556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.2</f>
         <v>1.2</v>
@@ -15611,7 +15616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A57" si="1">A14+0.2</f>
         <v>1.4</v>
@@ -15671,7 +15676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
@@ -15731,7 +15736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
@@ -15791,7 +15796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
@@ -15851,7 +15856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
@@ -15911,7 +15916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>2.4</v>
@@ -15971,7 +15976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>2.6</v>
@@ -16031,7 +16036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
@@ -16091,7 +16096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>3.0000000000000004</v>
@@ -16151,7 +16156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>3.2000000000000006</v>
@@ -16211,7 +16216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
@@ -16271,7 +16276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>3.600000000000001</v>
@@ -16331,7 +16336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>3.8000000000000012</v>
@@ -16391,7 +16396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
@@ -16451,7 +16456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>4.2000000000000011</v>
@@ -16511,7 +16516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>4.4000000000000012</v>
@@ -16571,7 +16576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>4.6000000000000014</v>
@@ -16631,7 +16636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
@@ -16691,7 +16696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>5.0000000000000018</v>
@@ -16751,7 +16756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
@@ -16811,7 +16816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>5.4000000000000021</v>
@@ -16871,7 +16876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>5.6000000000000023</v>
@@ -16931,7 +16936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>5.8000000000000025</v>
@@ -16991,7 +16996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>6.0000000000000027</v>
@@ -17051,7 +17056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>6.2000000000000028</v>
@@ -17105,7 +17110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>6.400000000000003</v>
@@ -17159,7 +17164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>6.6000000000000032</v>
@@ -17213,7 +17218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
         <v>6.8000000000000034</v>
@@ -17261,7 +17266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>7.0000000000000036</v>
@@ -17309,7 +17314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="1"/>
         <v>7.2000000000000037</v>
@@ -17351,7 +17356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>7.4000000000000039</v>
@@ -17393,7 +17398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="1"/>
         <v>7.6000000000000041</v>
@@ -17435,7 +17440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>7.8000000000000043</v>
@@ -17471,7 +17476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="1"/>
         <v>8.0000000000000036</v>
@@ -17507,7 +17512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>8.2000000000000028</v>
@@ -17537,7 +17542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="1"/>
         <v>8.4000000000000021</v>
@@ -17567,7 +17572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>8.6000000000000014</v>
@@ -17597,7 +17602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
@@ -17621,7 +17626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -17645,7 +17650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
@@ -17663,7 +17668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>9.3999999999999986</v>
@@ -17681,7 +17686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="1"/>
         <v>9.5999999999999979</v>
@@ -17699,7 +17704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="1"/>
         <v>9.7999999999999972</v>
@@ -17711,7 +17716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>A57+0.2</f>
         <v>9.9999999999999964</v>
@@ -17744,18 +17749,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E6DF0-45D0-4353-982F-8EF24D10CBAA}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="19" width="8.7265625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7">
         <v>20</v>
       </c>
@@ -17793,64 +17798,64 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -17909,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.1</f>
         <v>0.1</v>
@@ -17969,7 +17974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.1</f>
         <v>0.2</v>
@@ -18029,7 +18034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -18089,7 +18094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -18149,7 +18154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -18209,7 +18214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -18269,7 +18274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -18329,7 +18334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -18389,7 +18394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -18449,7 +18454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -18509,7 +18514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.2</f>
         <v>1.2</v>
@@ -18569,7 +18574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A38" si="1">A14+0.2</f>
         <v>1.4</v>
@@ -18629,7 +18634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
@@ -18689,7 +18694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
@@ -18749,7 +18754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
@@ -18809,7 +18814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
@@ -18869,7 +18874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>2.4</v>
@@ -18929,7 +18934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>2.6</v>
@@ -18989,7 +18994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
@@ -19049,7 +19054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>3.0000000000000004</v>
@@ -19109,7 +19114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>3.2000000000000006</v>
@@ -19169,7 +19174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>3.4000000000000008</v>
@@ -19229,7 +19234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>3.600000000000001</v>
@@ -19289,7 +19294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>3.8000000000000012</v>
@@ -19349,7 +19354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>4.0000000000000009</v>
@@ -19409,7 +19414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>4.2000000000000011</v>
@@ -19469,7 +19474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>4.4000000000000012</v>
@@ -19529,7 +19534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>4.6000000000000014</v>
@@ -19589,7 +19594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
@@ -19649,7 +19654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>5.0000000000000018</v>
@@ -19709,7 +19714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
@@ -19769,7 +19774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>5.4000000000000021</v>
@@ -19829,7 +19834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>5.6000000000000023</v>
@@ -19889,7 +19894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>5.8000000000000025</v>
@@ -19949,7 +19954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>6.0000000000000027</v>
@@ -20009,7 +20014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>A38+0.5</f>
         <v>6.5000000000000027</v>
@@ -20069,7 +20074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" ref="A40:A56" si="2">A39+0.5</f>
         <v>7.0000000000000027</v>
@@ -20129,7 +20134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="2"/>
         <v>7.5000000000000027</v>
@@ -20189,7 +20194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="2"/>
         <v>8.0000000000000036</v>
@@ -20249,7 +20254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="2"/>
         <v>8.5000000000000036</v>
@@ -20309,7 +20314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="2"/>
         <v>9.0000000000000036</v>
@@ -20369,7 +20374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="2"/>
         <v>9.5000000000000036</v>
@@ -20429,7 +20434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="2"/>
         <v>10.000000000000004</v>
@@ -20489,7 +20494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="2"/>
         <v>10.500000000000004</v>
@@ -20549,7 +20554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="2"/>
         <v>11.000000000000004</v>
@@ -20603,7 +20608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="2"/>
         <v>11.500000000000004</v>
@@ -20651,7 +20656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="2"/>
         <v>12.000000000000004</v>
@@ -20693,7 +20698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="2"/>
         <v>12.500000000000004</v>
@@ -20729,7 +20734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="2"/>
         <v>13.000000000000004</v>
@@ -20765,7 +20770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="2"/>
         <v>13.500000000000004</v>
@@ -20795,7 +20800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="2"/>
         <v>14.000000000000004</v>
@@ -20825,7 +20830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="2"/>
         <v>14.500000000000004</v>
@@ -20849,7 +20854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="2"/>
         <v>15.000000000000004</v>
@@ -20873,7 +20878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>16</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>17</v>
       </c>
@@ -20922,18 +20927,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C594F-3356-4B2D-AA52-AC7542C3BD38}">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="19" width="8.7265625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7">
         <v>34</v>
       </c>
@@ -20971,64 +20974,64 @@
       </c>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="R2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -21087,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>A3+0.2</f>
         <v>0.2</v>
@@ -21147,7 +21150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A13" si="0">A4+0.2</f>
         <v>0.4</v>
@@ -21207,7 +21210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
@@ -21267,7 +21270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>0.8</v>
@@ -21327,7 +21330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -21387,7 +21390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -21447,7 +21450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>A9+0.2</f>
         <v>1.4</v>
@@ -21507,7 +21510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
@@ -21567,7 +21570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
@@ -21627,7 +21630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
@@ -21687,7 +21690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>A13+0.5</f>
         <v>2.5</v>
@@ -21747,7 +21750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A55" si="1">A14+0.5</f>
         <v>3</v>
@@ -21807,7 +21810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>3.5</v>
@@ -21867,7 +21870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -21927,7 +21930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>4.5</v>
@@ -21987,7 +21990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -22047,7 +22050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>5.5</v>
@@ -22107,7 +22110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -22167,7 +22170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
@@ -22227,7 +22230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -22287,7 +22290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="1"/>
         <v>7.5</v>
@@ -22347,7 +22350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -22407,7 +22410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="1"/>
         <v>8.5</v>
@@ -22467,7 +22470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -22527,7 +22530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="1"/>
         <v>9.5</v>
@@ -22587,7 +22590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -22647,7 +22650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="1"/>
         <v>10.5</v>
@@ -22707,7 +22710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -22767,7 +22770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="1"/>
         <v>11.5</v>
@@ -22827,7 +22830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -22887,7 +22890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="1"/>
         <v>12.5</v>
@@ -22947,7 +22950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -23007,7 +23010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="1"/>
         <v>13.5</v>
@@ -23067,7 +23070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -23127,7 +23130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="1"/>
         <v>14.5</v>
@@ -23187,7 +23190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -23247,7 +23250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="1"/>
         <v>15.5</v>
@@ -23307,7 +23310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -23367,7 +23370,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="1"/>
         <v>16.5</v>
@@ -23427,7 +23430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -23487,7 +23490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="1"/>
         <v>17.5</v>
@@ -23547,7 +23550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -23607,7 +23610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="1"/>
         <v>18.5</v>
@@ -23661,7 +23664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -23715,7 +23718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="1"/>
         <v>19.5</v>
@@ -23763,7 +23766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -23811,7 +23814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="1"/>
         <v>20.5</v>
@@ -23853,7 +23856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -23895,7 +23898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="1"/>
         <v>21.5</v>
@@ -23931,7 +23934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -23967,7 +23970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="1"/>
         <v>22.5</v>
@@ -23997,7 +24000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -24027,7 +24030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>24</v>
       </c>
@@ -24050,7 +24053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>25</v>
       </c>
@@ -24067,7 +24070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>26</v>
       </c>
